--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E38879-751C-4206-B09F-E2D65C2E7076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031DD753-109F-472A-82B2-3935E352E584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1444,22 +1444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4.アカウント登録ができ次第、「TOPページ」に戻るを押す。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5.TOPページの「アカウント一覧」を押す。</t>
     <rPh sb="15" eb="17">
       <t>イチラン</t>
@@ -1834,6 +1818,45 @@
     <t>「エラーが発生したためアカウント一覧画面が閲覧できません。」の表示</t>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまで登録されたアカウント情報が表示されているか</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これまでのアカウント情報が表示されている</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.アカウント登録ができ次第、「TOPページへ戻る」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2359,7 +2382,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I103" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I106" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -2376,7 +2399,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A104:I108" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A107:I111" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -2743,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2880,7 +2903,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2888,25 +2911,25 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2918,34 +2941,40 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2958,7 +2987,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2970,30 +2999,24 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
@@ -3003,10 +3026,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
@@ -3015,23 +3038,29 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3042,7 +3071,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -3050,85 +3079,85 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>105</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -3139,7 +3168,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
@@ -3152,7 +3181,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -3164,29 +3193,23 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3197,7 +3220,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -3209,23 +3232,29 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="8">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3236,7 +3265,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -3249,7 +3278,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="4"/>
@@ -3261,29 +3290,23 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="8">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="4"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3294,7 +3317,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -3306,63 +3329,67 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="4"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="8"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="8">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
-        <v>5</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
       <c r="H45" s="2"/>
@@ -3372,15 +3399,11 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3391,7 +3414,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3400,16 +3423,14 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
@@ -3419,11 +3440,15 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3434,7 +3459,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3443,7 +3468,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -3451,7 +3476,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="4"/>
@@ -3463,7 +3488,9 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3473,22 +3500,18 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -3496,7 +3519,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -3508,9 +3531,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -3520,18 +3541,22 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>9</v>
@@ -3539,7 +3564,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
@@ -3552,7 +3577,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3560,44 +3585,42 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="8">
-        <v>9</v>
+      <c r="A60" s="2">
+        <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="4"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="8"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3609,23 +3632,29 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="8">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E63" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3636,7 +3665,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3649,7 +3678,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3661,29 +3690,23 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="8">
-        <v>10</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3694,7 +3717,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3706,23 +3729,29 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="8"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="8">
+        <v>14</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3733,7 +3762,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3746,7 +3775,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3758,29 +3787,23 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="8">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A74" s="8"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -3791,7 +3814,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3803,23 +3826,29 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="8">
+        <v>15</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3830,7 +3859,7 @@
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3838,12 +3867,12 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3851,33 +3880,27 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F80" s="2"/>
-      <c r="G80" s="4"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2">
-        <v>12</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A81" s="8"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -3888,7 +3911,7 @@
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3900,23 +3923,29 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="G83" s="4"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="2">
+        <v>16</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -3927,7 +3956,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3940,7 +3969,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3952,29 +3981,23 @@
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
-        <v>13</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -3985,10 +4008,10 @@
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
@@ -3997,23 +4020,29 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="2">
+        <v>17</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -4024,11 +4053,9 @@
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F92" s="2"/>
       <c r="G92" s="4"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4039,7 +4066,7 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4047,44 +4074,40 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="8"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="8">
-        <v>14</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="8"/>
+      <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -4104,20 +4127,20 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4129,7 +4152,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4148,53 +4171,98 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="9">
-        <v>16</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10" t="s">
-        <v>126</v>
+      <c r="A101" s="8">
+        <v>19</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="9">
+        <v>20</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031DD753-109F-472A-82B2-3935E352E584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898905E-31EA-445A-8162-6CD3D7ED0CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="143">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1207,6 +1207,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1305,32 +1309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録された性別が表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録されたアカウント権限が表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録された削除フラグが表示されているか</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -1339,38 +1317,6 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録された登録日時が表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録された更新日時が表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1545,32 +1491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録された性別の表示</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録されたアカウント権限の表示</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録された削除フラグの表示</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -1579,38 +1499,6 @@
       <t>サクジョ</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録された登録日時の表示</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録された更新日時の表示</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1857,6 +1745,331 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウントが登録</t>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できませんでした。」の誤表記</t>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された登録日時（年月日）が表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された更新日時（年月日）が表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された登録日時（年月日）の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された更新日時（年月日）の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された性別「男」が表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録画面で性別「男」で入力し「確認する」押す。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録画面で性別「女」で入力し「確認する」押す。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された性別「男」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録された性別「女」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録されたアカウント権限「一般」が表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録画面でアカウント権限「一般」で入力し</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「確認する」押す。</t>
+  </si>
+  <si>
+    <t>アカウント登録されたアカウント権限「管理者」が表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録画面でアカウント権限「管理者」で入力し</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録されたアカウント権限「一般」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録されたアカウント権限「管理者」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録時にエラーが発生するとその</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間のID番号は表示されない。</t>
+    <rPh sb="0" eb="1">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2382,7 +2595,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I106" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I122" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -2399,7 +2612,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A107:I111" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A123:I127" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -2766,10 +2979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2793,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2825,7 +3038,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2866,16 +3079,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2884,7 +3101,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2911,16 +3128,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2929,7 +3150,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2956,16 +3177,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2974,7 +3199,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3000,7 +3225,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3013,7 +3238,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3026,7 +3251,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3053,16 +3278,20 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3071,7 +3300,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -3097,7 +3326,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -3110,7 +3339,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4"/>
@@ -3123,7 +3352,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3150,16 +3379,20 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3168,7 +3401,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4"/>
@@ -3194,7 +3427,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="4"/>
@@ -3207,7 +3440,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -3220,7 +3453,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="4"/>
@@ -3247,16 +3480,20 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3265,7 +3502,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -3291,7 +3528,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -3304,7 +3541,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -3317,7 +3554,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -3344,16 +3581,20 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3362,7 +3603,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="4"/>
@@ -3388,7 +3629,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="4"/>
@@ -3401,7 +3642,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3414,7 +3655,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3422,12 +3663,8 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -3437,20 +3674,28 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="2">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3459,7 +3704,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3467,12 +3712,8 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
@@ -3489,7 +3730,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3502,7 +3743,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3510,16 +3751,12 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
-        <v>10</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -3538,33 +3775,37 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="2">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2">
-        <v>11</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
@@ -3590,7 +3831,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3598,16 +3839,12 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -3620,7 +3857,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3640,23 +3877,27 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="G63" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3665,7 +3906,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3691,7 +3932,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3704,7 +3945,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3717,7 +3958,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3737,23 +3978,27 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="G70" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3762,7 +4007,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3775,7 +4020,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3788,7 +4033,7 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3801,7 +4046,7 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3814,7 +4059,7 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3826,44 +4071,48 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="8">
-        <v>15</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A77" s="8"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="8"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="8">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G78" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3872,7 +4121,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3885,7 +4134,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3898,7 +4147,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3906,12 +4155,12 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3919,70 +4168,74 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
-        <v>16</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A84" s="8"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="8">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3990,12 +4243,12 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4003,12 +4256,12 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4016,70 +4269,74 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2">
-        <v>17</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A91" s="8"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="8">
+        <v>13</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4087,27 +4344,25 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -4119,85 +4374,83 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="8">
-        <v>18</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="8"/>
+      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="G99" s="4"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="8"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G100" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="8">
-        <v>19</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="8"/>
+      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4205,64 +4458,320 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="8"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="9">
-        <v>20</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="8"/>
+      <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="2">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="8"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="8">
+        <v>16</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G114" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="8"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="8"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="8">
+        <v>17</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G117" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="8"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="8"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="9">
+        <v>18</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G120" s="4">
+        <v>45811</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="8"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898905E-31EA-445A-8162-6CD3D7ED0CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView minimized="1" xWindow="720" yWindow="720" windowWidth="16920" windowHeight="10450" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2982,7 +2982,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
